--- a/ZUSE_template.xlsx
+++ b/ZUSE_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Typ dokumentu</t>
   </si>
@@ -28,19 +28,13 @@
     <t xml:space="preserve">ZUSE</t>
   </si>
   <si>
-    <t xml:space="preserve">Kod JB zgłaszanej</t>
+    <t xml:space="preserve">PPE</t>
   </si>
   <si>
     <t xml:space="preserve">Kod JB partnera handlowego</t>
   </si>
   <si>
     <t xml:space="preserve">Doba Handlowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB_1D7D3073071A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB_1EBFF826989F9</t>
   </si>
 </sst>
 </file>
@@ -235,59 +229,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,7 +538,7 @@
   <dimension ref="A1:CU106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1304,12 +1298,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="13" t="n">
         <v>45561</v>
       </c>
